--- a/Anforderungsliste.xlsx
+++ b/Anforderungsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484CB12-0FF5-4789-BF48-AC50696C411C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3744E96-09AB-4052-8BFF-F69F8F64C66C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,8 +1318,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2121,7 @@
     <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" copies="10" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri (Textkörper),Standard"&amp;14&amp;K00-034Produktspezifikation / Lastenheft&amp;C&amp;"Calibri (Textkörper),Fett"&amp;14&amp;K00-034Anforderungen&amp;R&amp;"Calibri (Textkörper),Standard"&amp;K00-034Version Nr. ____</oddHeader>

--- a/Anforderungsliste.xlsx
+++ b/Anforderungsliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3744E96-09AB-4052-8BFF-F69F8F64C66C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121038EB-4C22-4A1B-A7FF-F61B8AA524D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
   <si>
     <t>Hauptmerkmal</t>
   </si>
@@ -441,30 +441,18 @@
     <t>Wellendurchmesser</t>
   </si>
   <si>
-    <t>Auswahl von 70 - 75 - 80</t>
-  </si>
-  <si>
-    <t>Höhe des Gehäuses über dem Boden</t>
-  </si>
-  <si>
     <t>Übersetzungsverhältnis</t>
   </si>
   <si>
     <t>u=6,143</t>
   </si>
   <si>
-    <t>T=21600Nm</t>
-  </si>
-  <si>
     <t>h=62,5mm</t>
   </si>
   <si>
     <t>Getriebewandstärke</t>
   </si>
   <si>
-    <t>Fehrzeugdaten</t>
-  </si>
-  <si>
     <t>100 km/h</t>
   </si>
   <si>
@@ -486,15 +474,6 @@
     <t>Lagerarten</t>
   </si>
   <si>
-    <t>Axiallager; Zylinderrollenlager; Kegelrollenlager</t>
-  </si>
-  <si>
-    <t>Rechenmoment am Antrieb bei Durchmesser 75mm</t>
-  </si>
-  <si>
-    <t>T=790</t>
-  </si>
-  <si>
     <t>Schräglage in Kurven</t>
   </si>
   <si>
@@ -516,19 +495,10 @@
     <t>Drehmomentstütze gegen verdrehung</t>
   </si>
   <si>
-    <t>Einstufig ohne Kupplung</t>
-  </si>
-  <si>
     <t>Respektabstand von Zahnrad und Gehäuse</t>
   </si>
   <si>
-    <t>Fehrzeughöchst-geschwindigkeit</t>
-  </si>
-  <si>
     <t>Basis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieferung bereits montiert </t>
   </si>
   <si>
     <t>Aufhängung</t>
@@ -560,6 +530,306 @@
   </si>
   <si>
     <t>L10km&gt;3,2 Mio. km</t>
+  </si>
+  <si>
+    <t>minimale Höhe des Gehäuses über dem Boden</t>
+  </si>
+  <si>
+    <t>Fahrzeugdaten</t>
+  </si>
+  <si>
+    <t>Fahrzeughöchst-geschwindigkeit</t>
+  </si>
+  <si>
+    <t>T=790 Nm</t>
+  </si>
+  <si>
+    <t>Rechenmoment am Antrieb bei Lagerdurchmesser 75mm</t>
+  </si>
+  <si>
+    <t>Auswahl 70 mm - 75 mm - 80 mm</t>
+  </si>
+  <si>
+    <t>Betriebsdaten</t>
+  </si>
+  <si>
+    <t>Abtriebsdrehzahl</t>
+  </si>
+  <si>
+    <t>Abtriebsnennmoment</t>
+  </si>
+  <si>
+    <t>auch im Schadensfall</t>
+  </si>
+  <si>
+    <t>Max. Achslast</t>
+  </si>
+  <si>
+    <t>15 - 17 t</t>
+  </si>
+  <si>
+    <t>Respektabstand Zahnkopfkreis-Gehäuse</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Montage und Fertigung</t>
+  </si>
+  <si>
+    <t>Gehäusewerkstoff</t>
+  </si>
+  <si>
+    <t>EN-GJS-500-7</t>
+  </si>
+  <si>
+    <t>Allgemeine Getriebegeometrie</t>
+  </si>
+  <si>
+    <t>Gehäuse soll für alle Getriebevarianten laut Variantenliste passen</t>
+  </si>
+  <si>
+    <t>siehe Anhang</t>
+  </si>
+  <si>
+    <t>Getriebedaten</t>
+  </si>
+  <si>
+    <t>Evolventenverzahnung nach DIN 867</t>
+  </si>
+  <si>
+    <t>Schrägungssinn</t>
+  </si>
+  <si>
+    <t>Ritzel: rechts, Rad: links</t>
+  </si>
+  <si>
+    <t>Modul mn</t>
+  </si>
+  <si>
+    <t>Teilschrägungswinkel</t>
+  </si>
+  <si>
+    <t>13°</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>T=54000 Nm</t>
+  </si>
+  <si>
+    <t>T=10800 Nm</t>
+  </si>
+  <si>
+    <t>Max. statisches Abtriebsmoment ("worst case" durch Kurzschluss)</t>
+  </si>
+  <si>
+    <t>18CrNiMo7-6</t>
+  </si>
+  <si>
+    <t>Zahnradwerkstoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmierung  </t>
+  </si>
+  <si>
+    <t>Öltauchschmierung</t>
+  </si>
+  <si>
+    <t>Max. Sumpftemperatur 90°C</t>
+  </si>
+  <si>
+    <t>SHC 75W90 GL5</t>
+  </si>
+  <si>
+    <t>Vierpunktlager; Zylinderrollenlager; Kegelrollenlager</t>
+  </si>
+  <si>
+    <t>Kupplung</t>
+  </si>
+  <si>
+    <t>Antriebskupplung</t>
+  </si>
+  <si>
+    <t>Abtriebskupplung</t>
+  </si>
+  <si>
+    <t>Bogenzahnkupplung</t>
+  </si>
+  <si>
+    <t>Großrad direkt auf Abtriebswelle</t>
+  </si>
+  <si>
+    <t>Getriebeart</t>
+  </si>
+  <si>
+    <t>Stirnräder</t>
+  </si>
+  <si>
+    <t>Ölschauglas</t>
+  </si>
+  <si>
+    <t>Kennzeichnung des minimalen und maximalen Ölstandes</t>
+  </si>
+  <si>
+    <t>Öleinguss</t>
+  </si>
+  <si>
+    <t>Schrägteilung des Gehäuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verzahnung einsatzgehärtet </t>
+  </si>
+  <si>
+    <t>auf 740 HV +/- 20 HV, Kernhärte 400 HV</t>
+  </si>
+  <si>
+    <t>Nur eine Schraubenart (Durchmesser und Länge) für Lagerdeckel und Gehäuseteilungsverschraubung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieferung  </t>
+  </si>
+  <si>
+    <t>im montierten Zustand</t>
+  </si>
+  <si>
+    <t>Anstrich</t>
+  </si>
+  <si>
+    <t>RAL 5002</t>
+  </si>
+  <si>
+    <t>Anwendung</t>
+  </si>
+  <si>
+    <t>Metro im Stadt- und Vorstadtbetrieb</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.3</t>
   </si>
 </sst>
 </file>
@@ -643,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -865,14 +1135,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,9 +1187,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,16 +1194,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,18 +1288,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1034,6 +1305,40 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,809 +1621,1130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D46"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+    </row>
+    <row r="25" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="59"/>
+    </row>
+    <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+    </row>
+    <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+    </row>
+    <row r="34" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="59"/>
+    </row>
+    <row r="38" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+    </row>
+    <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+    </row>
+    <row r="42" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+    </row>
+    <row r="46" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+    </row>
+    <row r="54" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>3</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D58" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+    </row>
+    <row r="62" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+    </row>
+    <row r="64" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+    </row>
+    <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>7</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-    </row>
-    <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
-        <v>6</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-    </row>
-    <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <v>8</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-    </row>
-    <row r="34" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
-        <v>9</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-    </row>
-    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="C69" s="4"/>
+      <c r="D69" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-    </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="53" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-    </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C72" s="7">
         <v>43503</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="D72" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C73" s="7">
         <v>43521</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="D73" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C74" s="7">
         <v>43534</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="D74" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B31:D31"/>
+  <mergeCells count="13">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2150,826 +2776,826 @@
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="44" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="34">
         <v>2</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="34">
         <v>3</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="34">
         <v>4</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="35">
         <v>5</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="35">
         <v>6</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="38" t="s">
+      <c r="D26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="38" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
+      <c r="A33" s="35">
         <v>7</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="38" t="s">
+      <c r="D36" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
+      <c r="A38" s="35">
         <v>6</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
+      <c r="A41" s="35">
         <v>8</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="38" t="s">
+      <c r="D42" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="A44" s="35">
         <v>9</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="38" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="37" t="s">
+      <c r="C46" s="31"/>
+      <c r="D46" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="38" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="38" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="41">
         <v>43760</v>
       </c>
-      <c r="D52" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="38" t="s">
+      <c r="D52" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="41">
         <v>43781</v>
       </c>
-      <c r="D53" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="38" t="s">
+      <c r="D53" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="41">
         <v>43797</v>
       </c>
-      <c r="D54" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="38" t="s">
+      <c r="D54" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>124</v>
       </c>
     </row>

--- a/Anforderungsliste.xlsx
+++ b/Anforderungsliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121038EB-4C22-4A1B-A7FF-F61B8AA524D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1088FA-3A6B-40B0-A27C-4C98F56EEE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="259">
   <si>
     <t>Hauptmerkmal</t>
   </si>
@@ -658,9 +658,6 @@
     <t>Max. Sumpftemperatur 90°C</t>
   </si>
   <si>
-    <t>SHC 75W90 GL5</t>
-  </si>
-  <si>
     <t>Vierpunktlager; Zylinderrollenlager; Kegelrollenlager</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
     <t>3.9</t>
   </si>
   <si>
-    <t>3.10</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
@@ -802,9 +796,6 @@
     <t>9.6</t>
   </si>
   <si>
-    <t>9.7</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -830,6 +821,12 @@
   </si>
   <si>
     <t>13.3</t>
+  </si>
+  <si>
+    <t>Öl: SHC 75W90 GL5</t>
+  </si>
+  <si>
+    <t>Max. Abtriebsdrehzahl = 650  1/min</t>
   </si>
 </sst>
 </file>
@@ -1288,24 +1285,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1313,32 +1292,50 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,16 +1618,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -1651,24 +1648,24 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>224</v>
+      <c r="A4" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>170</v>
@@ -1681,7 +1678,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1695,29 +1692,31 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1731,7 +1730,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1740,10 +1739,12 @@
       <c r="C9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1752,21 +1753,27 @@
       <c r="C10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>225</v>
+      <c r="A11" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>226</v>
+      <c r="A12" s="49" t="s">
+        <v>225</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>144</v>
@@ -1775,21 +1782,21 @@
         <v>145</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="49" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1803,7 +1810,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1817,218 +1824,246 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="B18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="B19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="B20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="B21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="B22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+    </row>
+    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="53">
+        <v>4.5</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-    </row>
-    <row r="25" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="59"/>
-    </row>
-    <row r="26" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-    </row>
-    <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="61">
-        <v>4.5</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="C31" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" s="8"/>
+      <c r="B32" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
-        <v>51</v>
+      <c r="A34" s="54" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>205</v>
@@ -2036,319 +2071,335 @@
       <c r="C34" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="8"/>
+      <c r="A35" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+    </row>
+    <row r="41" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-    </row>
-    <row r="37" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="59"/>
-    </row>
-    <row r="38" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-    </row>
-    <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="B44" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+    </row>
+    <row r="45" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-    </row>
-    <row r="42" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-    </row>
-    <row r="46" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="B47" s="6" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="B49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
-        <v>243</v>
-      </c>
       <c r="B50" s="6" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="17" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
-        <v>244</v>
+      <c r="A51" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="D51" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="17" t="s">
+    <row r="52" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+    </row>
+    <row r="53" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-    </row>
-    <row r="54" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
-        <v>70</v>
+    <row r="54" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
-        <v>71</v>
+    <row r="55" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56" t="s">
-        <v>72</v>
+      <c r="A56" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="59" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="8"/>
+      <c r="A59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
-        <v>250</v>
+      <c r="A60" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>62</v>
@@ -2356,175 +2407,163 @@
     </row>
     <row r="61" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
     </row>
     <row r="62" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>57</v>
+        <v>93</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-    </row>
-    <row r="64" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="55" t="s">
+    <row r="64" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+    </row>
+    <row r="65" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="7">
+        <v>43503</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="B71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="7">
+        <v>43521</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-    </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="B72" s="4" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C72" s="7">
-        <v>43503</v>
+        <v>43534</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="7">
-        <v>43521</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="7">
-        <v>43534</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>61</v>
-      </c>
+    <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
@@ -2545,16 +2584,16 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -2580,13 +2619,13 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2718,33 +2757,21 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2809,12 +2836,12 @@
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -2922,12 +2949,12 @@
       <c r="A10" s="34">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -2984,12 +3011,12 @@
       <c r="A14" s="34">
         <v>3</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -3046,12 +3073,12 @@
       <c r="A18" s="34">
         <v>4</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -3091,12 +3118,12 @@
       <c r="A21" s="35">
         <v>5</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
@@ -3153,12 +3180,12 @@
       <c r="A25" s="35">
         <v>6</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
@@ -3279,12 +3306,12 @@
       <c r="A33" s="35">
         <v>7</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -3356,12 +3383,12 @@
       <c r="A38" s="35">
         <v>6</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -3401,12 +3428,12 @@
       <c r="A41" s="35">
         <v>8</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
@@ -3446,12 +3473,12 @@
       <c r="A44" s="35">
         <v>9</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
@@ -3502,12 +3529,12 @@
       <c r="A48" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
@@ -3541,12 +3568,12 @@
       <c r="A51" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
